--- a/excel/por manual/local/uruguay_antel.xlsx
+++ b/excel/por manual/local/uruguay_antel.xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>HOST</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>ERR_NAME_NOT_RESOLVED</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t xml:space="preserve">GMB </t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6380,7 +6380,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -7364,7 +7364,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -8922,7 +8922,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9906,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -11296,7 +11296,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -12362,7 +12362,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>GOVT</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -12772,7 +12772,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -12813,7 +12813,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -12854,7 +12854,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -12977,7 +12977,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -13059,7 +13059,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -13592,7 +13592,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -13633,7 +13633,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>HUMR</t>
+          <t>NO_CLASIFICADO</t>
         </is>
       </c>
     </row>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -13920,7 +13920,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -14043,7 +14043,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -14084,7 +14084,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -14125,7 +14125,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>COMM</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -15560,7 +15560,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -15642,7 +15642,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -15888,7 +15888,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -16462,7 +16462,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t xml:space="preserve">GMB </t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -17569,7 +17569,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -17774,7 +17774,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -17856,7 +17856,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -17938,7 +17938,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -19414,7 +19414,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -19455,7 +19455,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -19537,7 +19537,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -19783,7 +19783,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -19865,7 +19865,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -19988,7 +19988,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -20357,7 +20357,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -20480,7 +20480,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -20644,7 +20644,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -20931,7 +20931,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -21136,7 +21136,7 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -21874,7 +21874,7 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -22612,7 +22612,7 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -23760,7 +23760,7 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -25359,7 +25359,7 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>HOST</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -26056,7 +26056,7 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -26876,7 +26876,7 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -27532,7 +27532,7 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -27778,7 +27778,7 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -28639,7 +28639,7 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -28721,7 +28721,7 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
